--- a/analiza_ankiety/ankieta.xlsx
+++ b/analiza_ankiety/ankieta.xlsx
@@ -22,7 +22,7 @@
     <t xml:space="preserve">2. Jak ocenia Pani/Pan swój ogólny stan zdrowia? </t>
   </si>
   <si>
-    <t xml:space="preserve">3. Czy ma Pani/Pan zdiagnozowaną chorobę przewlekłą lub regularnie monitoruje swoje zdrowie? </t>
+    <t xml:space="preserve">3. Czy ma Pani/Pan zdiagnozowaną chorobę przewlekłą? </t>
   </si>
   <si>
     <t>3.1 Czy zapisuje Pani/Pan wyniki swoich pomiarów?</t>
@@ -124,7 +124,7 @@
     <t>Cele i postępy (gamifikacja), Porady od AI</t>
   </si>
   <si>
-    <t>Logowanie za pomocą konta Google / Facebook</t>
+    <t>Logowanie za pomocą konta Google</t>
   </si>
   <si>
     <t xml:space="preserve">Kalendarz miesiączkowy </t>
@@ -542,7 +542,7 @@
     <tableColumn name="Sygnatura czasowa" id="1"/>
     <tableColumn name="1. W jakim przedziale wiekowym znajduje się Pani/Pan? " id="2"/>
     <tableColumn name="2. Jak ocenia Pani/Pan swój ogólny stan zdrowia? " id="3"/>
-    <tableColumn name="3. Czy ma Pani/Pan zdiagnozowaną chorobę przewlekłą lub regularnie monitoruje swoje zdrowie? " id="4"/>
+    <tableColumn name="3. Czy ma Pani/Pan zdiagnozowaną chorobę przewlekłą? " id="4"/>
     <tableColumn name="3.1 Czy zapisuje Pani/Pan wyniki swoich pomiarów?" id="5"/>
     <tableColumn name="4. Czy przyjmuje Pani/Pan leki na stałe? " id="6"/>
     <tableColumn name="5. Czy korzysta Pani/Pan z aplikacji zdrowotnych (np. do pomiarów, diety, przypomnień)? " id="7"/>
@@ -7867,7 +7867,7 @@
       <c r="V98" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="W98" s="8" t="s">
+      <c r="W98" s="3" t="s">
         <v>36</v>
       </c>
       <c r="X98" s="8" t="s">
@@ -8157,7 +8157,7 @@
       <c r="V102" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="W102" s="8" t="s">
+      <c r="W102" s="3" t="s">
         <v>36</v>
       </c>
       <c r="X102" s="8"/>
@@ -9671,7 +9671,7 @@
       <c r="V123" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="W123" s="10" t="s">
+      <c r="W123" s="3" t="s">
         <v>36</v>
       </c>
       <c r="X123" s="13"/>
@@ -9743,7 +9743,7 @@
       <c r="V124" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="W124" s="10" t="s">
+      <c r="W124" s="3" t="s">
         <v>36</v>
       </c>
       <c r="X124" s="13"/>
